--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11659\Desktop\UMich\2021Fall\IOE591\Final\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C19863-09AD-4246-AC19-E398507A355F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE1B589-1784-49D9-9873-9DCDC502A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="4092" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients(full)" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="28">
   <si>
     <t>Patient</t>
   </si>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3198,7 +3198,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3270,7 +3270,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3352,8 +3352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D05ED04-686F-4927-80D3-26E93FBB5071}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3531,10 +3531,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90920ED8-C1B7-4853-8438-2DC3BD93257B}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3606,7 +3606,7 @@
         <v>825</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E26" si="0">D3+30</f>
+        <f t="shared" ref="E3:E31" si="0">D3+30</f>
         <v>855</v>
       </c>
       <c r="F3" t="s">
@@ -4238,6 +4238,141 @@
       </c>
       <c r="H26">
         <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-83.195688399999995</v>
+      </c>
+      <c r="C27" s="2">
+        <v>42.434691100000002</v>
+      </c>
+      <c r="D27">
+        <v>545</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>575</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-83.018939000000003</v>
+      </c>
+      <c r="C28" s="2">
+        <v>42.366155800000001</v>
+      </c>
+      <c r="D28">
+        <v>641</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>671</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-83.111580599999996</v>
+      </c>
+      <c r="C29" s="2">
+        <v>42.328264400000002</v>
+      </c>
+      <c r="D29">
+        <v>652</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>682</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-83.136128200000002</v>
+      </c>
+      <c r="C30" s="2">
+        <v>42.390951700000002</v>
+      </c>
+      <c r="D30">
+        <v>703</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>733</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-83.362024899999994</v>
+      </c>
+      <c r="C31" s="2">
+        <v>42.314130900000002</v>
+      </c>
+      <c r="D31">
+        <v>402</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4252,8 +4387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACAC4AF-703E-4621-9815-4626689F765A}">
   <dimension ref="A1:H612"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="AE493" sqref="AE493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
